--- a/Deliverable1PartC.xlsx
+++ b/Deliverable1PartC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/crdenney_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{7AB9200B-4CE3-49DB-B913-EFC7C6B8C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703B85AA-8C30-4681-9BB3-9186D9CD4A51}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{7AB9200B-4CE3-49DB-B913-EFC7C6B8C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5555DD4A-756B-44B4-BEC0-AB289171AB00}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{56661EF4-EBC3-4E8C-9FCD-A3F06CEF0988}"/>
+    <workbookView xWindow="-19310" yWindow="1050" windowWidth="19420" windowHeight="10300" xr2:uid="{56661EF4-EBC3-4E8C-9FCD-A3F06CEF0988}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Controls ID</t>
   </si>
@@ -216,19 +216,52 @@
   </si>
   <si>
     <t>Preventitive Administrative</t>
+  </si>
+  <si>
+    <t>1.2 V Controls</t>
+  </si>
+  <si>
+    <t>NET-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment of honeypots </t>
+  </si>
+  <si>
+    <t>Deploy multiple honeypot files located within various directories, such as EHR folders, and fake DA accounts.</t>
+  </si>
+  <si>
+    <t>AD – 006</t>
+  </si>
+  <si>
+    <t>Daily backup health check</t>
+  </si>
+  <si>
+    <t>Preventive Technical control</t>
+  </si>
+  <si>
+    <t>Administrative Detectice control</t>
+  </si>
+  <si>
+    <t>Detects when backups are misconfigured or data integrity is compromised</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,8 +284,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,6 +305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E4080-45F0-4540-9214-ACE552D5968B}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,7 +852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -821,8 +862,41 @@
       <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable1PartC.xlsx
+++ b/Deliverable1PartC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/crdenney_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{7AB9200B-4CE3-49DB-B913-EFC7C6B8C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5555DD4A-756B-44B4-BEC0-AB289171AB00}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{7AB9200B-4CE3-49DB-B913-EFC7C6B8C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F70908-5A98-42DA-8026-CCF2C7FD6DC8}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1050" windowWidth="19420" windowHeight="10300" xr2:uid="{56661EF4-EBC3-4E8C-9FCD-A3F06CEF0988}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>Controls ID</t>
   </si>
@@ -243,6 +243,33 @@
   </si>
   <si>
     <t>Detects when backups are misconfigured or data integrity is compromised</t>
+  </si>
+  <si>
+    <t>1.3 V Controls</t>
+  </si>
+  <si>
+    <t>IAW-001</t>
+  </si>
+  <si>
+    <t>AD – 007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designated admin workstation </t>
+  </si>
+  <si>
+    <t>Review of PowerShell change logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventive Technical preventive control </t>
+  </si>
+  <si>
+    <t>: Detective Administrative control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create workstations only available to administrators to perform administrative actions, and prevent other workstations from completing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC staff reviews PowerShell change logs to look for suspicious activity </t>
   </si>
 </sst>
 </file>
@@ -628,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E4080-45F0-4540-9214-ACE552D5968B}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,6 +926,39 @@
         <v>68</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverable1PartC.xlsx
+++ b/Deliverable1PartC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/crdenney_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{7AB9200B-4CE3-49DB-B913-EFC7C6B8C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F70908-5A98-42DA-8026-CCF2C7FD6DC8}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{7AB9200B-4CE3-49DB-B913-EFC7C6B8C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EB481DA-A281-4BE6-A0E0-9EB8C482DECC}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1050" windowWidth="19420" windowHeight="10300" xr2:uid="{56661EF4-EBC3-4E8C-9FCD-A3F06CEF0988}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Controls ID</t>
   </si>
@@ -63,15 +63,6 @@
   </si>
   <si>
     <t>Prevents attacker from exploiting outdated software</t>
-  </si>
-  <si>
-    <t>NET-001</t>
-  </si>
-  <si>
-    <t>Segmentation of Endpoint and Medical Devices</t>
-  </si>
-  <si>
-    <t>Stops lateral movment from one workstation to medical device</t>
   </si>
   <si>
     <t>BACKRec-001</t>
@@ -655,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E4080-45F0-4540-9214-ACE552D5968B}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="49" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -691,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -705,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -719,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -733,35 +724,35 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -775,21 +766,21 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -803,21 +794,21 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
@@ -831,132 +822,118 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" ht="29.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
       <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable1PartC.xlsx
+++ b/Deliverable1PartC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/crdenney_purdue_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{7AB9200B-4CE3-49DB-B913-EFC7C6B8C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AAD24AC-87ED-4ADF-8442-E88C531C437C}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{7AB9200B-4CE3-49DB-B913-EFC7C6B8C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56568903-00FD-4F0D-BD35-892953766BC8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{56661EF4-EBC3-4E8C-9FCD-A3F06CEF0988}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>Controls ID</t>
   </si>
@@ -206,18 +206,12 @@
     <t>Preventitive Administrative</t>
   </si>
   <si>
-    <t>NET-003</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deployment of honeypots </t>
   </si>
   <si>
     <t>Deploy multiple honeypot files located within various directories, such as EHR folders, and fake DA accounts.</t>
   </si>
   <si>
-    <t>AD – 006</t>
-  </si>
-  <si>
     <t>Daily backup health check</t>
   </si>
   <si>
@@ -230,12 +224,6 @@
     <t>Detects when backups are misconfigured or data integrity is compromised</t>
   </si>
   <si>
-    <t>IAW-001</t>
-  </si>
-  <si>
-    <t>AD – 007</t>
-  </si>
-  <si>
     <t xml:space="preserve">Designated admin workstation </t>
   </si>
   <si>
@@ -254,18 +242,6 @@
     <t xml:space="preserve">SOC staff reviews PowerShell change logs to look for suspicious activity </t>
   </si>
   <si>
-    <t>V1.3  Controls</t>
-  </si>
-  <si>
-    <t>V1.2  Controls</t>
-  </si>
-  <si>
-    <t>V 1.7 Contorls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRED-001 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mandatory default credential changes on all devices and associated software </t>
   </si>
   <si>
@@ -288,6 +264,21 @@
   </si>
   <si>
     <t>Phishing Training</t>
+  </si>
+  <si>
+    <t>NET-003 (V 1.2)</t>
+  </si>
+  <si>
+    <t>AD – 006 (V 1.2)</t>
+  </si>
+  <si>
+    <t>IAW-001 (V 1.3)</t>
+  </si>
+  <si>
+    <t>AD – 007 (V 1.3)</t>
+  </si>
+  <si>
+    <t>CRED-001  (V 1.7)</t>
   </si>
 </sst>
 </file>
@@ -673,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E4080-45F0-4540-9214-ACE552D5968B}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,13 +692,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -754,32 +745,32 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G23" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G19" si="0">E3*F3</f>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>E4*F4</f>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -802,387 +793,371 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>E5*F5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
+        <f>E8*F8</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f>E9*F9</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f>E10*F10</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f>E11*F11</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f>E12*F12</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>E20*F20</f>
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>25</v>
       </c>
     </row>
   </sheetData>
